--- a/RegressionTests/Unit_Test_11/aptrans_anon.602447PRSA_-_Exec_0720.xlsx
+++ b/RegressionTests/Unit_Test_11/aptrans_anon.602447PRSA_-_Exec_0720.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HERMITAGE MEDICAL CLINIC</t>
   </si>
@@ -208,46 +208,49 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1160256</t>
+    <t>1183057</t>
   </si>
   <si>
     <t>244701</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>04/08/2021</t>
+  </si>
+  <si>
+    <t>15/09/2021</t>
+  </si>
+  <si>
+    <t>23,125.44</t>
+  </si>
+  <si>
+    <t>ILIM R McDonald - TV from CWPS</t>
+  </si>
+  <si>
+    <t>1180332</t>
+  </si>
+  <si>
     <t>Direct Debit</t>
   </si>
   <si>
-    <t>29/04/2021</t>
-  </si>
-  <si>
-    <t>100,828.61</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM Apr 2021</t>
-  </si>
-  <si>
-    <t>1160252</t>
-  </si>
-  <si>
-    <t>9,957.35</t>
-  </si>
-  <si>
-    <t>1158226</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
-  </si>
-  <si>
-    <t>7,000.00</t>
-  </si>
-  <si>
-    <t>ILIM SPAV - A Billingham 0624761</t>
+    <t>31/08/2021</t>
+  </si>
+  <si>
+    <t>103,621.47</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM Aug 2021</t>
+  </si>
+  <si>
+    <t>1180330</t>
+  </si>
+  <si>
+    <t>10,685.27</t>
   </si>
   <si>
     <t>Annually</t>
@@ -388,14 +391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -408,6 +403,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -435,7 +438,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
@@ -449,11 +452,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,7 +1131,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1142,7 +1148,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1159,7 +1165,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1198,16 +1204,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1284,31 +1290,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1329,13 +1335,13 @@
         <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>68</v>
@@ -1352,22 +1358,22 @@
         <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -1375,115 +1381,115 @@
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I16" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
